--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H2">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I2">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J2">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.11900232212</v>
+        <v>0.7705828279599999</v>
       </c>
       <c r="R2">
-        <v>1.07102089908</v>
+        <v>6.93524545164</v>
       </c>
       <c r="S2">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="T2">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>229.479935</v>
       </c>
       <c r="I3">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J3">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>180.3849977061</v>
       </c>
       <c r="S3">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="T3">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H4">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I4">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J4">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.33867517376</v>
+        <v>0.26258762266</v>
       </c>
       <c r="R4">
-        <v>3.04807656384</v>
+        <v>2.36328860394</v>
       </c>
       <c r="S4">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="T4">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H5">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I5">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J5">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.51436694904</v>
+        <v>0.6174558070999999</v>
       </c>
       <c r="R5">
-        <v>13.62930254136</v>
+        <v>5.5571022639</v>
       </c>
       <c r="S5">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="T5">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H6">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I6">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J6">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.07278959269999999</v>
+        <v>0.1351141066</v>
       </c>
       <c r="R6">
-        <v>0.6551063343</v>
+        <v>1.2160269594</v>
       </c>
       <c r="S6">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="T6">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H7">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I7">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J7">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.25229477834</v>
+        <v>0.4807241637</v>
       </c>
       <c r="R7">
-        <v>2.27065300506</v>
+        <v>4.3265174733</v>
       </c>
       <c r="S7">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="T7">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
     </row>
   </sheetData>
